--- a/public/download/yqmdmb.xlsx
+++ b/public/download/yqmdmb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11040" tabRatio="75"/>
+    <workbookView xWindow="3780" yWindow="80" windowWidth="19440" windowHeight="11040" tabRatio="75"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>客户姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>1100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.7109375" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -437,7 +445,7 @@
     <col min="7" max="16384" width="18.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="26.5" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="26.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +464,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -476,8 +487,11 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
